--- a/biology/Botanique/Paronychia/Paronychia.xlsx
+++ b/biology/Botanique/Paronychia/Paronychia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paronychia (les paronyques), forme un genre de plantes de la famille des Caryophyllacées. On en dénombre plus de cent espèces de par le monde. Le genre Siphonychia fait désormais partie des paronyques.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des plantes herbacées annuelles, bisannuelles ou pérennes. Certaines espèces ont une base ligneuse. Elles ont en général de petites fleurs blanches ou blanc-jaunâtre souvent cachées par les bractées.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ont les trouve dans les zones tempérées des Amériques, d'Eurasie et d'Afrique.
 </t>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de ce genre vient de paronychie, une maladie des ongles que ces plantes étaient censées guérir.
 </t>
@@ -604,7 +622,9 @@
           <t>Espèces (à compléter)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Paronychia argentea
 Paronychia canadensis
